--- a/SEO_check/ROW/SEO_cano_data.xlsx
+++ b/SEO_check/ROW/SEO_cano_data.xlsx
@@ -7,9 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Canonical" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="JPN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="KOR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CHN" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -395,15 +392,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -427,7 +424,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/</t>
+          <t>https://www.impact.science/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -436,10 +433,10 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/english-editing</t>
+          <t>https://www.impact.science/universities/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,10 +445,10 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/english-editing/premium-editing-plan</t>
+          <t>https://www.impact.science/ref-2021/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,10 +457,10 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
+    <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/english-editing/top-journal-editing-plan</t>
+          <t>https://www.impact.science/publishers-societies/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,10 +469,10 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1">
+    <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/translation</t>
+          <t>https://www.impact.science/researcher/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,10 +481,10 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/other/journal-submission</t>
+          <t>https://www.impact.science/about/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -496,10 +493,10 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/publishing-services-packs</t>
+          <t>https://www.impact.science/about/press-room/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -508,10 +505,10 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
+    <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>https://www.editage.com/services/publishing-services-packs/gold-pack</t>
+          <t>https://www.impact.science/research-news/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -520,136 +517,44 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>https://www.impact.science/case-studies/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Canonical tag is correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>https://www.impact.science/contact-us/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Canonical tag is correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>https://www.impact.science/blog/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Canonical tag is correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-    <hyperlink ref="A2" r:id="rId57"/>
-    <hyperlink ref="A3" r:id="rId58"/>
-    <hyperlink ref="A4" r:id="rId59"/>
-    <hyperlink ref="A5" r:id="rId60"/>
-    <hyperlink ref="A6" r:id="rId61"/>
-    <hyperlink ref="A7" r:id="rId62"/>
-    <hyperlink ref="A8" r:id="rId63"/>
-    <hyperlink ref="A9" r:id="rId64"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>